--- a/big-data/big-data-capstone/project/data/beer_n_Desperados Mojito.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Desperados Mojito.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>franclh(4,817)
+          <t>franclh(4,826)
 🇳🇱Dedemsvaart, Netherlands
 1.2August 15, 2021
 Fles 33cl thuis gedeeld. Munt, suiker, tequila, erg zoet, lemon. (14-8-2021).
@@ -827,7 +827,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BlackHaddock(13,417)
+          <t>BlackHaddock(13,427)
 🇬🇧The County Time Forgot, England
 3.2July 19, 2021
 Clear 400ml bottle (6% ABV) from a local Nisa Store: 5th Feb 2022. Drank in the sun on my patio 18th Jul 2021. I actually quite enjoyed this cocktail beer, the mint and lime hide the…
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Grisza77(1,938)
+          <t>Grisza77(1,939)
 🇵🇱Poznań, Poland
 2.4May 11, 2021
 Jasno złote, klarowne piwo o słabej pianie, która szybko redukuje się do zera. Aromat głównie mięty. W smaku mięta i limonka. Goryczki brak. Ogólnie z piwem to nie ma za dużo…
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AndySnow(13,883)
+          <t>AndySnow(13,897)
 🇸🇪Huddinge, Sweden
 2.5April 23, 2021
 How: Bottle.
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>blariacum(1,021)
+          <t>blariacum(1,022)
 🇳🇱Nijmegen, Netherlands
 2.7March 22, 2021
 Fles. Aroma aangenaam mojito,  lime, munt. Smaakt er wel naar, maar proeft industrieel. Te zoet in nasmaak, volop suiker.
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MetalMurphy(1,761)
+          <t>MetalMurphy(1,760)
 🇭🇺Budapest, Hungary
 2.0November 20, 2020
 can @ auchan (budapest) yellow colour, normal body, average carbonated, mint aroma, sweet and sugary taste, easy to drink
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marko(14,001)
+          <t>Marko(14,025)
 🇨🇿Prague, Czech Republic
 2.5November 7, 2020
 Can, made by Heineken Slovakia. Clear golden body, flimsy white head gone fairly slow. Minty aroma, especially first, vague tequilaish and apple touches too. Dunno. Sweet taste,…
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SVD(5,169)
+          <t>SVD(5,173)
 🇳🇱Nijmegen, Netherlands
 2.4September 21, 2020
 Can at home, golden beer, small head. Aroma is mint, sweet, some citrus but the mint is strongest. Taste is the same, mint, sweet, icetea like, meh drinkable but meh
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Beerhunter111(38,166)
+          <t>Beerhunter111(38,181)
 🇩🇪Beerland, Germany
 2.0July 21, 2020
 50cl can. A clear golden beer with a big white head. Aroma of herbs, mojito, tea, mint. Taste of mint, lime, sweet malt, sugar tea.
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>yerffoeg(860)
+          <t>yerffoeg(861)
 🇧🇪Dinant, Belgium
 2.3July 16, 2020
 J'aime bien. Elle ressemble plus à un panaché très fortement aromatisée, mais j'aime bien. Elle est fraiche en bouche, peut-être un peu trop sucrée (mais quel mojito ne l'est pas) et se…
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>caketm(4,444)
+          <t>caketm(4,453)
 🇵🇱Czestochowa, Poland
 2.4June 11, 2020
 Puszka 0,5 litra, zakupiona w spożywczaku w Gdańsku. Bardzo sztuczne w odbiorze.
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ciupakabra(1,469)
+          <t>ciupakabra(1,472)
 🇵🇱Poland
 1.9May 4, 2020
 Kolor: Słomkowy, klarowny. Piana: Biała, średnio obfita, drobnopęcherzykowa, szybko opada, dość słaby lacing. Zapach: Słodki, miętowy, limonkowy, nieco sztuczny. Smak:…
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>maupie(3,409)
+          <t>maupie(3,417)
 🇳🇱Roosendaal, Netherlands
 2.4March 21, 2020
 33cl fles. Helder goudgeel van kleur, fijne  romige witte schuimkraag. De geur is mint en limonade. Smaak is zoet, mojito, mint en citrus. Licht body en veel koolzuur.
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lucyfer(746)
+          <t>lucyfer(748)
 🇵🇱Poland
 3.0February 15, 2020
 Aromat typowy dla mojito czyli limonka+mięta. Do tego nieco mokrego kartonu. W smaku te same akcenty z tym że bardziej czuć miętę. Do tego alkohol. Dość mocno nagazowane. Pełni…
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Goldbarren(4,526)
+          <t>Goldbarren(4,531)
 🇦🇹Vienna, Austria
 3.0December 23, 2019
 Cocktail-Bier bzw Bier-Cocktail. Die Desperados-Reihe ist ja schon lange sehr erfolgreich.
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zlotta(8,030)
+          <t>Zlotta(8,037)
 🇩🇪Hagen, Germany
 2.5December 16, 2019
 Sampled from 0.33 l bottle from local 'REWE', best before June 2020. Clear, golden with a thin, frothy, almost stable, white head. Sweetish, herbal and slightly fruity aroma of mint, some…
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dekris(1,357)
+          <t>dekris(1,361)
 🇵🇱Olkusz, Poland
 1.3March 4, 2020
 Uzupełnienie ocen piwnych bez opisu z uwagi na przeniesienie z papierowych zapisków.
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>melush(12,208)
+          <t>melush(12,222)
 🇪🇸Spain
 1.0September 13, 2019
 33cl Bottle @ El Corte Ingles, Seville, Spain.
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hvn(561)
+          <t>hvn(562)
 🇬🇱Nuuk, Greenland
 2.1September 10, 2019
 Napój piwny, barwa złota, piana słaba, szybko opada. W aromacie mohito. W smaku płyn miętowy do mycia naczyń. Bardzo słodkie.
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jesperhammer(6,993)
+          <t>jesperhammer(7,004)
 🇩🇰Copenhagen, Denmark
 1.6July 31, 2019
 30-JUL-2019, bottle @Benalmadena appartment, from El Corte Ingles. 
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Michcio(2,090)
+          <t>Michcio(2,096)
 🇵🇱Gdansk, Poland
 2.2July 21, 2019
 Barwa złota, klarowne, piana biała, obfita, ale niezbyt trwała. W aromacie cukier, słodycz, lekkie mojito tylko. W smaku słodkie, cukrowe, sztuczne, mało orzeźwiające, a takie właśnie powinn…
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>koorchuck(3,728)
+          <t>koorchuck(3,733)
 🇵🇱Nacpolsk, Poland
 2.4May 14, 2019
 Dzięki tym dodatkom chyba najlepsze z Desperadosów. Sporo mięty i limonki, tylko za słodkie.
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lithilorn(568)
+          <t>lithilorn(570)
 🇵🇹Covilhã, Portugal
 2.4April 20, 2019
 Clear golden body and tiny white head. Mint,herbal, some tequila and lime aroma. Sweet lime, mint and some sugar flavor. Better than simple Desperados.
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SilkTork(7,345)
+          <t>SilkTork(7,347)
 🇬🇧Southampton, United Kingdom, England
 2.0February 18, 2019
 Feb 2019. Can from MonoPrix in Marseille. A typical bit of nonsense. I didn't buy this, Chrissie bought it for her relatives to have with nuts and olives when they dropped round our…
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 1.9September 26, 2018
 Clear yellow small white head.
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fombe89(8,965)
+          <t>fombe89(8,968)
 🇪🇸Asturias, Spain
 1.2June 23, 2018
 Botella de. @Masymas, Oviedo 21/06/2018…
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ogivlado(14,038)
+          <t>ogivlado(14,052)
 🇭🇷Zagreb, Croatia
 2.2January 22, 2018
 Bottled 650ml. -from Geant Albertville. Golden coloured, big white airy head, light lime in the nose. Artificial lime, sugar and touch of mint with moderate strong carbonation and sweet…
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Rubin77(7,796)
+          <t>Rubin77(7,803)
 🇧🇪Brussels, Belgium
 2.7November 9, 2017
 F: huge, white, good retention.
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Borup(22,599)
+          <t>Borup(22,600)
 🇩🇰Albertslund, Denmark
 1.9September 7, 2017
 50 cl. can. A clear yellow coloured beer with a white head. Aroma and flavour of malt, fruit, lime herbal and tequila.
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>dutchdarthvader(1,993)
+          <t>dutchdarthvader(1,999)
 🇳🇱Netherlands
 2.2January 18, 2021
 Gaan we nu twee hippe drankjes mengen? Zowel Mojito als desperado tot deze nieuwe variant. Maar alles waar ik bij de orgine desperado enthousiast over was mis ik in deze…
